--- a/biology/Zoologie/Afrotyphlops_congestus/Afrotyphlops_congestus.xlsx
+++ b/biology/Zoologie/Afrotyphlops_congestus/Afrotyphlops_congestus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops congestus est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops congestus est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Nigeria, au Cameroun, sur l'île de Bioko en Guinée équatoriale, en République centrafricaine, au Gabon, en République du Congo, dans l'Ouest, le centre et l'Est de la République démocratique du Congo et en Ouganda[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Nigeria, au Cameroun, sur l'île de Bioko en Guinée équatoriale, en République centrafricaine, au Gabon, en République du Congo, dans l'Ouest, le centre et l'Est de la République démocratique du Congo et en Ouganda.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1844 : Erpétologie générale ou Histoire naturelle complète des reptiles. Librairie encyclopédique Roret, Paris, vol. 6, p. 1-609 (texte intégral).</t>
         </is>
